--- a/2023-NHA-TRANG-Data-Analytics-for-Managers/Bao-Hiem/raw/4-RM-Phuong.xlsx
+++ b/2023-NHA-TRANG-Data-Analytics-for-Managers/Bao-Hiem/raw/4-RM-Phuong.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\Lectures\2023-NHA-TRANG-Data-Analytics-for-Managers\Du-Lieu\Bao-Hiem\raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\Lectures\2023-NHA-TRANG-Data-Analytics-for-Managers\Bao-Hiem\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9CB446-76C7-480C-9660-6B04989AA5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F39764D-B8A4-4153-B59F-555C7A899650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A64452C2-62A8-4960-B9B1-417093B6A9C6}"/>
+    <workbookView xWindow="28680" yWindow="-8550" windowWidth="29040" windowHeight="15720" xr2:uid="{A64452C2-62A8-4960-B9B1-417093B6A9C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sale" sheetId="3" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="433">
   <si>
     <t>Stt</t>
   </si>
@@ -180,18 +180,6 @@
     <t>CẦN FOLLOW THÊM</t>
   </si>
   <si>
-    <t>Chốt Deal (đã thu tiền)</t>
-  </si>
-  <si>
-    <t>Tiềm năng chốt Deal</t>
-  </si>
-  <si>
-    <t>Cần Follow thêm</t>
-  </si>
-  <si>
-    <t>Từ chối</t>
-  </si>
-  <si>
     <t>Ngày Chốt Deal</t>
   </si>
   <si>
@@ -1381,6 +1369,21 @@
   </si>
   <si>
     <t>C24</t>
+  </si>
+  <si>
+    <t>Chốt Deal (Đã Thu Tiền)</t>
+  </si>
+  <si>
+    <t>Tiềm Năng Chốt Deal</t>
+  </si>
+  <si>
+    <t>Cần Follow Thêm</t>
+  </si>
+  <si>
+    <t>Từ Chối</t>
+  </si>
+  <si>
+    <t>Tiềm Năng</t>
   </si>
 </sst>
 </file>
@@ -1398,7 +1401,7 @@
     <numFmt numFmtId="170" formatCode="d/m/yy"/>
     <numFmt numFmtId="171" formatCode="[$-1010000]d/m/yyyy;@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1486,8 +1489,18 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1548,8 +1561,14 @@
         <bgColor rgb="FFFFC000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="0"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1735,8 +1754,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -1748,8 +1797,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1999,8 +2049,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="15" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="12">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma [0] 2" xfId="4" xr:uid="{E9EAF6FB-1135-4FCF-8E5B-A74D5079DBE8}"/>
     <cellStyle name="Comma 2" xfId="9" xr:uid="{0BD2E6C6-6CE2-48AB-83C5-66F5C3CF4BA5}"/>
@@ -2012,6 +2068,7 @@
     <cellStyle name="Normal 6" xfId="2" xr:uid="{66E8E442-5746-447E-B614-D42A2CBBEEEA}"/>
     <cellStyle name="Normal 7" xfId="3" xr:uid="{82D83FAE-F77D-44A1-9F8E-D311F1893A65}"/>
     <cellStyle name="Normal 8" xfId="10" xr:uid="{1B5A525F-0D43-49B5-9B15-AE8C53F94E51}"/>
+    <cellStyle name="Normal_Chung" xfId="11" xr:uid="{1BB404CF-C3B6-4F9F-9188-4F23109DA230}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6707,7 +6764,7 @@
   <dimension ref="A1:X34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6740,7 +6797,7 @@
   <sheetData>
     <row r="1" spans="1:24" s="9" customFormat="1">
       <c r="A1" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -6751,7 +6808,7 @@
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="98" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
@@ -6760,82 +6817,82 @@
       <c r="O1" s="7"/>
       <c r="P1" s="7"/>
       <c r="Q1" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V1" s="30"/>
     </row>
     <row r="2" spans="1:24" s="10" customFormat="1">
       <c r="A2" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>427</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:24" s="14" customFormat="1">
@@ -6849,7 +6906,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>26</v>
@@ -6864,57 +6921,57 @@
         <v>29</v>
       </c>
       <c r="I3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="99" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="99" t="s">
+      <c r="L3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" s="12" t="s">
+      <c r="N3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N3" s="12" t="s">
+      <c r="P3" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="O3" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>42</v>
-      </c>
       <c r="Q3" s="13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="R3" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="S3" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="T3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="U3" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="V3" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="S3" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="T3" s="14" t="s">
+      <c r="W3" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="U3" s="14" t="s">
+      <c r="X3" s="14" t="s">
         <v>49</v>
-      </c>
-      <c r="V3" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="W3" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="X3" s="14" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:24" s="18" customFormat="1" ht="57.6">
       <c r="A4" s="15" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B4" s="16" t="str">
         <f>IF(LEN(VLOOKUP(A4,'RM-PHUONG'!A:V,2,0))=0,"",VLOOKUP(A4,'RM-PHUONG'!A:V,2,0))</f>
@@ -6996,7 +7053,7 @@
     </row>
     <row r="5" spans="1:24" s="22" customFormat="1" ht="28.8">
       <c r="A5" s="19" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B5" s="20" t="str">
         <f>IF(LEN(VLOOKUP(A5,'RM-PHUONG'!A:V,2,0))=0,"",VLOOKUP(A5,'RM-PHUONG'!A:V,2,0))</f>
@@ -7077,7 +7134,7 @@
     </row>
     <row r="6" spans="1:24" s="22" customFormat="1" ht="28.8">
       <c r="A6" s="19" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B6" s="20" t="str">
         <f>IF(LEN(VLOOKUP(A6,'RM-PHUONG'!A:V,2,0))=0,"",VLOOKUP(A6,'RM-PHUONG'!A:V,2,0))</f>
@@ -7145,7 +7202,7 @@
         <v>Lê Thị Hoài Phương</v>
       </c>
       <c r="V6" s="34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="W6" s="22" t="str">
         <f>IF(LEN(VLOOKUP(A6,'RM-PHUONG'!A:V,15,0))=0,"",VLOOKUP(A6,'RM-PHUONG'!A:V,15,0))</f>
@@ -7158,7 +7215,7 @@
     </row>
     <row r="7" spans="1:24" s="22" customFormat="1" ht="28.8">
       <c r="A7" s="19" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B7" s="20" t="str">
         <f>IF(LEN(VLOOKUP(A7,'RM-PHUONG'!A:V,2,0))=0,"",VLOOKUP(A7,'RM-PHUONG'!A:V,2,0))</f>
@@ -7226,7 +7283,7 @@
         <v>Lê Thị Hoài Phương</v>
       </c>
       <c r="V7" s="34" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="W7" s="22" t="str">
         <f>IF(LEN(VLOOKUP(A7,'RM-PHUONG'!A:V,15,0))=0,"",VLOOKUP(A7,'RM-PHUONG'!A:V,15,0))</f>
@@ -7239,7 +7296,7 @@
     </row>
     <row r="8" spans="1:24" s="22" customFormat="1">
       <c r="A8" s="19" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B8" s="20" t="str">
         <f>IF(LEN(VLOOKUP(A8,'RM-PHUONG'!A:V,2,0))=0,"",VLOOKUP(A8,'RM-PHUONG'!A:V,2,0))</f>
@@ -7307,7 +7364,7 @@
         <v>Lê Thị Hoài Phương</v>
       </c>
       <c r="V8" s="34" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="W8" s="22" t="str">
         <f>IF(LEN(VLOOKUP(A8,'RM-PHUONG'!A:V,15,0))=0,"",VLOOKUP(A8,'RM-PHUONG'!A:V,15,0))</f>
@@ -7320,7 +7377,7 @@
     </row>
     <row r="9" spans="1:24" s="22" customFormat="1">
       <c r="A9" s="19" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B9" s="20" t="str">
         <f>IF(LEN(VLOOKUP(A9,'RM-PHUONG'!A:V,2,0))=0,"",VLOOKUP(A9,'RM-PHUONG'!A:V,2,0))</f>
@@ -7388,7 +7445,7 @@
         <v>Lê Thị Hoài Phương</v>
       </c>
       <c r="V9" s="34" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="W9" s="22" t="str">
         <f>IF(LEN(VLOOKUP(A9,'RM-PHUONG'!A:V,15,0))=0,"",VLOOKUP(A9,'RM-PHUONG'!A:V,15,0))</f>
@@ -7401,7 +7458,7 @@
     </row>
     <row r="10" spans="1:24" s="22" customFormat="1" ht="43.2">
       <c r="A10" s="19" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B10" s="20" t="str">
         <f>IF(LEN(VLOOKUP(A10,'RM-PHUONG'!A:V,2,0))=0,"",VLOOKUP(A10,'RM-PHUONG'!A:V,2,0))</f>
@@ -7469,7 +7526,7 @@
         <v>Lê Thị Hoài Phương</v>
       </c>
       <c r="V10" s="34" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="W10" s="22" t="str">
         <f>IF(LEN(VLOOKUP(A10,'RM-PHUONG'!A:V,15,0))=0,"",VLOOKUP(A10,'RM-PHUONG'!A:V,15,0))</f>
@@ -7482,7 +7539,7 @@
     </row>
     <row r="11" spans="1:24" s="22" customFormat="1">
       <c r="A11" s="19" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B11" s="20" t="str">
         <f>IF(LEN(VLOOKUP(A11,'RM-PHUONG'!A:V,2,0))=0,"",VLOOKUP(A11,'RM-PHUONG'!A:V,2,0))</f>
@@ -7550,7 +7607,7 @@
         <v>Lê Thị Hoài Phương</v>
       </c>
       <c r="V11" s="34" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="W11" s="22" t="str">
         <f>IF(LEN(VLOOKUP(A11,'RM-PHUONG'!A:V,15,0))=0,"",VLOOKUP(A11,'RM-PHUONG'!A:V,15,0))</f>
@@ -7563,7 +7620,7 @@
     </row>
     <row r="12" spans="1:24" s="22" customFormat="1" ht="43.2">
       <c r="A12" s="19" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B12" s="20" t="str">
         <f>IF(LEN(VLOOKUP(A12,'RM-PHUONG'!A:V,2,0))=0,"",VLOOKUP(A12,'RM-PHUONG'!A:V,2,0))</f>
@@ -7631,7 +7688,7 @@
         <v>Lê Thị Hoài Phương</v>
       </c>
       <c r="V12" s="34" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="W12" s="22" t="str">
         <f>IF(LEN(VLOOKUP(A12,'RM-PHUONG'!A:V,15,0))=0,"",VLOOKUP(A12,'RM-PHUONG'!A:V,15,0))</f>
@@ -7644,7 +7701,7 @@
     </row>
     <row r="13" spans="1:24" s="22" customFormat="1">
       <c r="A13" s="19" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B13" s="20" t="str">
         <f>IF(LEN(VLOOKUP(A13,'RM-PHUONG'!A:V,2,0))=0,"",VLOOKUP(A13,'RM-PHUONG'!A:V,2,0))</f>
@@ -7712,7 +7769,7 @@
         <v>Lê Thị Hoài Phương</v>
       </c>
       <c r="V13" s="34" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="W13" s="22" t="str">
         <f>IF(LEN(VLOOKUP(A13,'RM-PHUONG'!A:V,15,0))=0,"",VLOOKUP(A13,'RM-PHUONG'!A:V,15,0))</f>
@@ -7725,7 +7782,7 @@
     </row>
     <row r="14" spans="1:24" s="22" customFormat="1">
       <c r="A14" s="19" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B14" s="20" t="str">
         <f>IF(LEN(VLOOKUP(A14,'RM-PHUONG'!A:V,2,0))=0,"",VLOOKUP(A14,'RM-PHUONG'!A:V,2,0))</f>
@@ -7793,7 +7850,7 @@
         <v>Lê Thị Hoài Phương</v>
       </c>
       <c r="V14" s="34" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="W14" s="22" t="str">
         <f>IF(LEN(VLOOKUP(A14,'RM-PHUONG'!A:V,15,0))=0,"",VLOOKUP(A14,'RM-PHUONG'!A:V,15,0))</f>
@@ -7806,7 +7863,7 @@
     </row>
     <row r="15" spans="1:24" s="22" customFormat="1" ht="28.8">
       <c r="A15" s="19" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B15" s="20" t="str">
         <f>IF(LEN(VLOOKUP(A15,'RM-PHUONG'!A:V,2,0))=0,"",VLOOKUP(A15,'RM-PHUONG'!A:V,2,0))</f>
@@ -7874,7 +7931,7 @@
         <v>Lê Thị Hoài Phương</v>
       </c>
       <c r="V15" s="34" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="W15" s="22" t="str">
         <f>IF(LEN(VLOOKUP(A15,'RM-PHUONG'!A:V,15,0))=0,"",VLOOKUP(A15,'RM-PHUONG'!A:V,15,0))</f>
@@ -7887,7 +7944,7 @@
     </row>
     <row r="16" spans="1:24" s="22" customFormat="1">
       <c r="A16" s="19" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B16" s="20" t="str">
         <f>IF(LEN(VLOOKUP(A16,'RM-PHUONG'!A:V,2,0))=0,"",VLOOKUP(A16,'RM-PHUONG'!A:V,2,0))</f>
@@ -7955,7 +8012,7 @@
         <v>Lê Thị Hoài Phương</v>
       </c>
       <c r="V16" s="34" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="W16" s="22" t="str">
         <f>IF(LEN(VLOOKUP(A16,'RM-PHUONG'!A:V,15,0))=0,"",VLOOKUP(A16,'RM-PHUONG'!A:V,15,0))</f>
@@ -7968,7 +8025,7 @@
     </row>
     <row r="17" spans="1:24" s="22" customFormat="1" ht="28.8">
       <c r="A17" s="19" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B17" s="20" t="str">
         <f>IF(LEN(VLOOKUP(A17,'RM-PHUONG'!A:V,2,0))=0,"",VLOOKUP(A17,'RM-PHUONG'!A:V,2,0))</f>
@@ -8036,7 +8093,7 @@
         <v>Lê Thị Hoài Phương</v>
       </c>
       <c r="V17" s="34" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="W17" s="22" t="str">
         <f>IF(LEN(VLOOKUP(A17,'RM-PHUONG'!A:V,15,0))=0,"",VLOOKUP(A17,'RM-PHUONG'!A:V,15,0))</f>
@@ -8049,7 +8106,7 @@
     </row>
     <row r="18" spans="1:24" s="22" customFormat="1">
       <c r="A18" s="19" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B18" s="20" t="str">
         <f>IF(LEN(VLOOKUP(A18,'RM-PHUONG'!A:V,2,0))=0,"",VLOOKUP(A18,'RM-PHUONG'!A:V,2,0))</f>
@@ -8117,7 +8174,7 @@
         <v>Lê Thị Hoài Phương</v>
       </c>
       <c r="V18" s="34" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="W18" s="22" t="str">
         <f>IF(LEN(VLOOKUP(A18,'RM-PHUONG'!A:V,15,0))=0,"",VLOOKUP(A18,'RM-PHUONG'!A:V,15,0))</f>
@@ -8130,7 +8187,7 @@
     </row>
     <row r="19" spans="1:24" s="22" customFormat="1">
       <c r="A19" s="19" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B19" s="20" t="str">
         <f>IF(LEN(VLOOKUP(A19,'RM-PHUONG'!A:V,2,0))=0,"",VLOOKUP(A19,'RM-PHUONG'!A:V,2,0))</f>
@@ -8198,7 +8255,7 @@
         <v>Lê Thị Hoài Phương</v>
       </c>
       <c r="V19" s="34" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="W19" s="22" t="str">
         <f>IF(LEN(VLOOKUP(A19,'RM-PHUONG'!A:V,15,0))=0,"",VLOOKUP(A19,'RM-PHUONG'!A:V,15,0))</f>
@@ -8211,7 +8268,7 @@
     </row>
     <row r="20" spans="1:24" s="22" customFormat="1" ht="28.8">
       <c r="A20" s="19" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B20" s="20" t="str">
         <f>IF(LEN(VLOOKUP(A20,'RM-PHUONG'!A:V,2,0))=0,"",VLOOKUP(A20,'RM-PHUONG'!A:V,2,0))</f>
@@ -8279,7 +8336,7 @@
         <v>Lê Thị Hoài Phương</v>
       </c>
       <c r="V20" s="34" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="W20" s="22" t="str">
         <f>IF(LEN(VLOOKUP(A20,'RM-PHUONG'!A:V,15,0))=0,"",VLOOKUP(A20,'RM-PHUONG'!A:V,15,0))</f>
@@ -8292,7 +8349,7 @@
     </row>
     <row r="21" spans="1:24" s="22" customFormat="1">
       <c r="A21" s="19" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B21" s="20" t="str">
         <f>IF(LEN(VLOOKUP(A21,'RM-PHUONG'!A:V,2,0))=0,"",VLOOKUP(A21,'RM-PHUONG'!A:V,2,0))</f>
@@ -8360,7 +8417,7 @@
         <v>Lê Thị Hoài Phương</v>
       </c>
       <c r="V21" s="34" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="W21" s="22" t="str">
         <f>IF(LEN(VLOOKUP(A21,'RM-PHUONG'!A:V,15,0))=0,"",VLOOKUP(A21,'RM-PHUONG'!A:V,15,0))</f>
@@ -8373,7 +8430,7 @@
     </row>
     <row r="22" spans="1:24" s="22" customFormat="1">
       <c r="A22" s="19" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B22" s="20" t="str">
         <f>IF(LEN(VLOOKUP(A22,'RM-PHUONG'!A:V,2,0))=0,"",VLOOKUP(A22,'RM-PHUONG'!A:V,2,0))</f>
@@ -8441,7 +8498,7 @@
         <v>Lê Thị Hoài Phương</v>
       </c>
       <c r="V22" s="34" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="W22" s="22" t="str">
         <f>IF(LEN(VLOOKUP(A22,'RM-PHUONG'!A:V,15,0))=0,"",VLOOKUP(A22,'RM-PHUONG'!A:V,15,0))</f>
@@ -8454,7 +8511,7 @@
     </row>
     <row r="23" spans="1:24" s="22" customFormat="1" ht="43.2">
       <c r="A23" s="19" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B23" s="20" t="str">
         <f>IF(LEN(VLOOKUP(A23,'RM-PHUONG'!A:V,2,0))=0,"",VLOOKUP(A23,'RM-PHUONG'!A:V,2,0))</f>
@@ -8522,7 +8579,7 @@
         <v>Lê Thị Hoài Phương</v>
       </c>
       <c r="V23" s="34" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="W23" s="22" t="str">
         <f>IF(LEN(VLOOKUP(A23,'RM-PHUONG'!A:V,15,0))=0,"",VLOOKUP(A23,'RM-PHUONG'!A:V,15,0))</f>
@@ -8535,7 +8592,7 @@
     </row>
     <row r="24" spans="1:24" s="22" customFormat="1" ht="28.8">
       <c r="A24" s="19" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B24" s="20" t="str">
         <f>IF(LEN(VLOOKUP(A24,'RM-PHUONG'!A:V,2,0))=0,"",VLOOKUP(A24,'RM-PHUONG'!A:V,2,0))</f>
@@ -8603,7 +8660,7 @@
         <v>Lê Thị Hoài Phương</v>
       </c>
       <c r="V24" s="34" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="W24" s="22" t="str">
         <f>IF(LEN(VLOOKUP(A24,'RM-PHUONG'!A:V,15,0))=0,"",VLOOKUP(A24,'RM-PHUONG'!A:V,15,0))</f>
@@ -8616,7 +8673,7 @@
     </row>
     <row r="25" spans="1:24" s="22" customFormat="1">
       <c r="A25" s="19" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B25" s="20" t="str">
         <f>IF(LEN(VLOOKUP(A25,'RM-PHUONG'!A:V,2,0))=0,"",VLOOKUP(A25,'RM-PHUONG'!A:V,2,0))</f>
@@ -8684,7 +8741,7 @@
         <v>Lê Thị Hoài Phương</v>
       </c>
       <c r="V25" s="34" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="W25" s="22" t="str">
         <f>IF(LEN(VLOOKUP(A25,'RM-PHUONG'!A:V,15,0))=0,"",VLOOKUP(A25,'RM-PHUONG'!A:V,15,0))</f>
@@ -8697,7 +8754,7 @@
     </row>
     <row r="26" spans="1:24" s="22" customFormat="1" ht="28.8">
       <c r="A26" s="19" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B26" s="20" t="str">
         <f>IF(LEN(VLOOKUP(A26,'RM-PHUONG'!A:V,2,0))=0,"",VLOOKUP(A26,'RM-PHUONG'!A:V,2,0))</f>
@@ -8765,7 +8822,7 @@
         <v>Lê Thị Hoài Phương</v>
       </c>
       <c r="V26" s="34" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="W26" s="22" t="str">
         <f>IF(LEN(VLOOKUP(A26,'RM-PHUONG'!A:V,15,0))=0,"",VLOOKUP(A26,'RM-PHUONG'!A:V,15,0))</f>
@@ -8778,7 +8835,7 @@
     </row>
     <row r="27" spans="1:24" s="22" customFormat="1" ht="28.8">
       <c r="A27" s="19" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B27" s="20" t="str">
         <f>IF(LEN(VLOOKUP(A27,'RM-PHUONG'!A:V,2,0))=0,"",VLOOKUP(A27,'RM-PHUONG'!A:V,2,0))</f>
@@ -8846,7 +8903,7 @@
         <v>Lê Thị Hoài Phương</v>
       </c>
       <c r="V27" s="34" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="W27" s="22" t="str">
         <f>IF(LEN(VLOOKUP(A27,'RM-PHUONG'!A:V,15,0))=0,"",VLOOKUP(A27,'RM-PHUONG'!A:V,15,0))</f>
@@ -8859,7 +8916,7 @@
     </row>
     <row r="28" spans="1:24" s="22" customFormat="1">
       <c r="A28" s="19" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B28" s="20" t="str">
         <f>IF(LEN(VLOOKUP(A28,'RM-PHUONG'!A:V,2,0))=0,"",VLOOKUP(A28,'RM-PHUONG'!A:V,2,0))</f>
@@ -8927,7 +8984,7 @@
         <v>Lê Thị Hoài Phương</v>
       </c>
       <c r="V28" s="34" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="W28" s="22" t="str">
         <f>IF(LEN(VLOOKUP(A28,'RM-PHUONG'!A:V,15,0))=0,"",VLOOKUP(A28,'RM-PHUONG'!A:V,15,0))</f>
@@ -8940,7 +8997,7 @@
     </row>
     <row r="29" spans="1:24" s="22" customFormat="1">
       <c r="A29" s="19" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B29" s="20" t="str">
         <f>IF(LEN(VLOOKUP(A29,'RM-PHUONG'!A:V,2,0))=0,"",VLOOKUP(A29,'RM-PHUONG'!A:V,2,0))</f>
@@ -9008,7 +9065,7 @@
         <v>Lê Thị Hoài Phương</v>
       </c>
       <c r="V29" s="34" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="W29" s="22" t="str">
         <f>IF(LEN(VLOOKUP(A29,'RM-PHUONG'!A:V,15,0))=0,"",VLOOKUP(A29,'RM-PHUONG'!A:V,15,0))</f>
@@ -9021,7 +9078,7 @@
     </row>
     <row r="30" spans="1:24" s="22" customFormat="1" ht="86.4">
       <c r="A30" s="19" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B30" s="20" t="str">
         <f>IF(LEN(VLOOKUP(A30,'RM-PHUONG'!A:V,2,0))=0,"",VLOOKUP(A30,'RM-PHUONG'!A:V,2,0))</f>
@@ -9089,7 +9146,7 @@
         <v>Lê Thị Hoài Phương</v>
       </c>
       <c r="V30" s="34" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="W30" s="22" t="str">
         <f>IF(LEN(VLOOKUP(A30,'RM-PHUONG'!A:V,15,0))=0,"",VLOOKUP(A30,'RM-PHUONG'!A:V,15,0))</f>
@@ -9102,7 +9159,7 @@
     </row>
     <row r="31" spans="1:24" s="22" customFormat="1" ht="28.8">
       <c r="A31" s="19" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B31" s="20" t="str">
         <f>IF(LEN(VLOOKUP(A31,'RM-PHUONG'!A:V,2,0))=0,"",VLOOKUP(A31,'RM-PHUONG'!A:V,2,0))</f>
@@ -9170,7 +9227,7 @@
         <v>Lê Thị Hoài Phương</v>
       </c>
       <c r="V31" s="34" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="W31" s="22" t="str">
         <f>IF(LEN(VLOOKUP(A31,'RM-PHUONG'!A:V,15,0))=0,"",VLOOKUP(A31,'RM-PHUONG'!A:V,15,0))</f>
@@ -9183,7 +9240,7 @@
     </row>
     <row r="32" spans="1:24" s="22" customFormat="1">
       <c r="A32" s="19" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B32" s="20" t="str">
         <f>IF(LEN(VLOOKUP(A32,'RM-PHUONG'!A:V,2,0))=0,"",VLOOKUP(A32,'RM-PHUONG'!A:V,2,0))</f>
@@ -9251,7 +9308,7 @@
         <v>Lê Thị Hoài Phương</v>
       </c>
       <c r="V32" s="34" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="W32" s="22" t="str">
         <f>IF(LEN(VLOOKUP(A32,'RM-PHUONG'!A:V,15,0))=0,"",VLOOKUP(A32,'RM-PHUONG'!A:V,15,0))</f>
@@ -9264,7 +9321,7 @@
     </row>
     <row r="33" spans="1:24" s="22" customFormat="1" ht="86.4">
       <c r="A33" s="19" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B33" s="20" t="str">
         <f>IF(LEN(VLOOKUP(A33,'RM-PHUONG'!A:V,2,0))=0,"",VLOOKUP(A33,'RM-PHUONG'!A:V,2,0))</f>
@@ -9332,7 +9389,7 @@
         <v>Lê Thị Hoài Phương</v>
       </c>
       <c r="V33" s="34" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="W33" s="22" t="str">
         <f>IF(LEN(VLOOKUP(A33,'RM-PHUONG'!A:V,15,0))=0,"",VLOOKUP(A33,'RM-PHUONG'!A:V,15,0))</f>
@@ -9345,7 +9402,7 @@
     </row>
     <row r="34" spans="1:24" s="22" customFormat="1">
       <c r="A34" s="19" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B34" s="20" t="str">
         <f>IF(LEN(VLOOKUP(A34,'RM-PHUONG'!A:V,2,0))=0,"",VLOOKUP(A34,'RM-PHUONG'!A:V,2,0))</f>
@@ -9413,7 +9470,7 @@
         <v>Lê Thị Hoài Phương</v>
       </c>
       <c r="V34" s="34" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="W34" s="22" t="str">
         <f>IF(LEN(VLOOKUP(A34,'RM-PHUONG'!A:V,15,0))=0,"",VLOOKUP(A34,'RM-PHUONG'!A:V,15,0))</f>
@@ -9522,7 +9579,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B2" t="str">
         <f>VLOOKUP(A2,'RM-PHUONG'!A:U,2,0)</f>
@@ -9535,7 +9592,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B3" t="str">
         <f>VLOOKUP(A3,'RM-PHUONG'!A:U,2,0)</f>
@@ -9548,7 +9605,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B4" t="str">
         <f>VLOOKUP(A4,'RM-PHUONG'!A:U,2,0)</f>
@@ -9561,7 +9618,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B5" t="str">
         <f>VLOOKUP(A5,'RM-PHUONG'!A:U,2,0)</f>
@@ -9574,7 +9631,7 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B6" t="str">
         <f>VLOOKUP(A6,'RM-PHUONG'!A:U,2,0)</f>
@@ -9587,7 +9644,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B7" t="str">
         <f>VLOOKUP(A7,'RM-PHUONG'!A:U,2,0)</f>
@@ -9600,7 +9657,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B8" t="str">
         <f>VLOOKUP(A8,'RM-PHUONG'!A:U,2,0)</f>
@@ -9613,7 +9670,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B9" t="str">
         <f>VLOOKUP(A9,'RM-PHUONG'!A:U,2,0)</f>
@@ -9626,7 +9683,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B10" t="str">
         <f>VLOOKUP(A10,'RM-PHUONG'!A:U,2,0)</f>
@@ -9639,7 +9696,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B11" t="str">
         <f>VLOOKUP(A11,'RM-PHUONG'!A:U,2,0)</f>
@@ -9652,7 +9709,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B12" t="str">
         <f>VLOOKUP(A12,'RM-PHUONG'!A:U,2,0)</f>
@@ -9665,7 +9722,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B13" t="str">
         <f>VLOOKUP(A13,'RM-PHUONG'!A:U,2,0)</f>
@@ -9678,7 +9735,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B14" t="str">
         <f>VLOOKUP(A14,'RM-PHUONG'!A:U,2,0)</f>
@@ -9691,7 +9748,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B15" t="str">
         <f>VLOOKUP(A15,'RM-PHUONG'!A:U,2,0)</f>
@@ -9704,7 +9761,7 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B16" t="str">
         <f>VLOOKUP(A16,'RM-PHUONG'!A:U,2,0)</f>
@@ -9717,7 +9774,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B17" t="str">
         <f>VLOOKUP(A17,'RM-PHUONG'!A:U,2,0)</f>
@@ -9730,7 +9787,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B18" t="str">
         <f>VLOOKUP(A18,'RM-PHUONG'!A:U,2,0)</f>
@@ -9743,7 +9800,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B19" t="str">
         <f>VLOOKUP(A19,'RM-PHUONG'!A:U,2,0)</f>
@@ -9756,7 +9813,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B20" t="str">
         <f>VLOOKUP(A20,'RM-PHUONG'!A:U,2,0)</f>
@@ -9769,7 +9826,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B21" t="str">
         <f>VLOOKUP(A21,'RM-PHUONG'!A:U,2,0)</f>
@@ -9782,7 +9839,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B22" t="str">
         <f>VLOOKUP(A22,'RM-PHUONG'!A:U,2,0)</f>
@@ -9795,7 +9852,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B23" t="str">
         <f>VLOOKUP(A23,'RM-PHUONG'!A:U,2,0)</f>
@@ -9808,7 +9865,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B24" t="str">
         <f>VLOOKUP(A24,'RM-PHUONG'!A:U,2,0)</f>
@@ -9821,7 +9878,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B25" t="str">
         <f>VLOOKUP(A25,'RM-PHUONG'!A:U,2,0)</f>
@@ -9834,7 +9891,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B26" t="str">
         <f>VLOOKUP(A26,'RM-PHUONG'!A:U,2,0)</f>
@@ -9847,7 +9904,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B27" t="str">
         <f>VLOOKUP(A27,'RM-PHUONG'!A:U,2,0)</f>
@@ -9860,7 +9917,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B28" t="str">
         <f>VLOOKUP(A28,'RM-PHUONG'!A:U,2,0)</f>
@@ -9873,7 +9930,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B29" t="str">
         <f>VLOOKUP(A29,'RM-PHUONG'!A:U,2,0)</f>
@@ -9886,7 +9943,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B30" t="str">
         <f>VLOOKUP(A30,'RM-PHUONG'!A:U,2,0)</f>
@@ -9899,7 +9956,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B31" t="str">
         <f>VLOOKUP(A31,'RM-PHUONG'!A:U,2,0)</f>
@@ -9912,7 +9969,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B32" t="str">
         <f>VLOOKUP(A32,'RM-PHUONG'!A:U,2,0)</f>
@@ -9925,7 +9982,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B33" t="e">
         <f>VLOOKUP(A33,'RM-PHUONG'!A:U,2,0)</f>
@@ -9938,7 +9995,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B34" t="e">
         <f>VLOOKUP(A34,'RM-PHUONG'!A:U,2,0)</f>
@@ -9951,7 +10008,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B35" t="e">
         <f>VLOOKUP(A35,'RM-PHUONG'!A:U,2,0)</f>
@@ -9964,7 +10021,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B36" t="e">
         <f>VLOOKUP(A36,'RM-PHUONG'!A:U,2,0)</f>
@@ -9977,7 +10034,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B37" t="e">
         <f>VLOOKUP(A37,'RM-PHUONG'!A:U,2,0)</f>
@@ -9990,7 +10047,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B38" t="e">
         <f>VLOOKUP(A38,'RM-PHUONG'!A:U,2,0)</f>
@@ -10003,7 +10060,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B39" t="e">
         <f>VLOOKUP(A39,'RM-PHUONG'!A:U,2,0)</f>
@@ -10016,7 +10073,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B40" t="e">
         <f>VLOOKUP(A40,'RM-PHUONG'!A:U,2,0)</f>
@@ -10029,7 +10086,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B41" t="e">
         <f>VLOOKUP(A41,'RM-PHUONG'!A:U,2,0)</f>
@@ -10042,7 +10099,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B42" t="e">
         <f>VLOOKUP(A42,'RM-PHUONG'!A:U,2,0)</f>
@@ -10055,7 +10112,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B43" t="e">
         <f>VLOOKUP(A43,'RM-PHUONG'!A:U,2,0)</f>
@@ -10068,7 +10125,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B44" t="e">
         <f>VLOOKUP(A44,'RM-PHUONG'!A:U,2,0)</f>
@@ -10081,7 +10138,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B45" t="e">
         <f>VLOOKUP(A45,'RM-PHUONG'!A:U,2,0)</f>
@@ -10094,7 +10151,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B46" t="e">
         <f>VLOOKUP(A46,'RM-PHUONG'!A:U,2,0)</f>
@@ -10107,7 +10164,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B47" t="e">
         <f>VLOOKUP(A47,'RM-PHUONG'!A:U,2,0)</f>
@@ -10120,7 +10177,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B48" t="e">
         <f>VLOOKUP(A48,'RM-PHUONG'!A:U,2,0)</f>
@@ -10133,7 +10190,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B49" t="e">
         <f>VLOOKUP(A49,'RM-PHUONG'!A:U,2,0)</f>
@@ -10146,7 +10203,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B50" t="e">
         <f>VLOOKUP(A50,'RM-PHUONG'!A:U,2,0)</f>
@@ -10159,7 +10216,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B51" t="e">
         <f>VLOOKUP(A51,'RM-PHUONG'!A:U,2,0)</f>
@@ -10172,7 +10229,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B52" t="e">
         <f>VLOOKUP(A52,'RM-PHUONG'!A:U,2,0)</f>
@@ -10185,7 +10242,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B53" t="e">
         <f>VLOOKUP(A53,'RM-PHUONG'!A:U,2,0)</f>
@@ -10198,7 +10255,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B54" t="e">
         <f>VLOOKUP(A54,'RM-PHUONG'!A:U,2,0)</f>
@@ -10211,7 +10268,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B55" t="e">
         <f>VLOOKUP(A55,'RM-PHUONG'!A:U,2,0)</f>
@@ -10224,7 +10281,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B56" t="e">
         <f>VLOOKUP(A56,'RM-PHUONG'!A:U,2,0)</f>
@@ -10237,7 +10294,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B57" t="e">
         <f>VLOOKUP(A57,'RM-PHUONG'!A:U,2,0)</f>
@@ -10250,7 +10307,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B58" t="e">
         <f>VLOOKUP(A58,'RM-PHUONG'!A:U,2,0)</f>
@@ -10263,7 +10320,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B59" t="e">
         <f>VLOOKUP(A59,'RM-PHUONG'!A:U,2,0)</f>
@@ -10276,7 +10333,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B60" t="e">
         <f>VLOOKUP(A60,'RM-PHUONG'!A:U,2,0)</f>
@@ -10289,7 +10346,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B61" t="e">
         <f>VLOOKUP(A61,'RM-PHUONG'!A:U,2,0)</f>
@@ -10302,7 +10359,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B62" t="e">
         <f>VLOOKUP(A62,'RM-PHUONG'!A:U,2,0)</f>
@@ -10315,7 +10372,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B63" t="e">
         <f>VLOOKUP(A63,'RM-PHUONG'!A:U,2,0)</f>
@@ -10328,7 +10385,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B64" t="e">
         <f>VLOOKUP(A64,'RM-PHUONG'!A:U,2,0)</f>
@@ -10341,7 +10398,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B65" t="e">
         <f>VLOOKUP(A65,'RM-PHUONG'!A:U,2,0)</f>
@@ -10354,7 +10411,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B66" t="e">
         <f>VLOOKUP(A66,'RM-PHUONG'!A:U,2,0)</f>
@@ -10367,7 +10424,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B67" t="e">
         <f>VLOOKUP(A67,'RM-PHUONG'!A:U,2,0)</f>
@@ -10380,7 +10437,7 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B68" t="e">
         <f>VLOOKUP(A68,'RM-PHUONG'!A:U,2,0)</f>
@@ -10393,7 +10450,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B69" t="e">
         <f>VLOOKUP(A69,'RM-PHUONG'!A:U,2,0)</f>
@@ -10406,7 +10463,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B70" t="e">
         <f>VLOOKUP(A70,'RM-PHUONG'!A:U,2,0)</f>
@@ -10419,7 +10476,7 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B71" t="e">
         <f>VLOOKUP(A71,'RM-PHUONG'!A:U,2,0)</f>
@@ -10432,7 +10489,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B72" t="e">
         <f>VLOOKUP(A72,'RM-PHUONG'!A:U,2,0)</f>
@@ -10445,7 +10502,7 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B73" t="e">
         <f>VLOOKUP(A73,'RM-PHUONG'!A:U,2,0)</f>
@@ -10458,7 +10515,7 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B74" t="e">
         <f>VLOOKUP(A74,'RM-PHUONG'!A:U,2,0)</f>
@@ -10471,7 +10528,7 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B75" t="e">
         <f>VLOOKUP(A75,'RM-PHUONG'!A:U,2,0)</f>
@@ -10484,7 +10541,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B76" t="e">
         <f>VLOOKUP(A76,'RM-PHUONG'!A:U,2,0)</f>
@@ -10497,7 +10554,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B77" t="e">
         <f>VLOOKUP(A77,'RM-PHUONG'!A:U,2,0)</f>
@@ -10510,7 +10567,7 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B78" t="e">
         <f>VLOOKUP(A78,'RM-PHUONG'!A:U,2,0)</f>
@@ -10523,7 +10580,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B79" t="e">
         <f>VLOOKUP(A79,'RM-PHUONG'!A:U,2,0)</f>
@@ -10536,7 +10593,7 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B80" t="e">
         <f>VLOOKUP(A80,'RM-PHUONG'!A:U,2,0)</f>
@@ -10549,7 +10606,7 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B81" t="e">
         <f>VLOOKUP(A81,'RM-PHUONG'!A:U,2,0)</f>
@@ -10562,7 +10619,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B82" t="e">
         <f>VLOOKUP(A82,'RM-PHUONG'!A:U,2,0)</f>
@@ -10594,9 +10651,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF6E4B1-6A5F-4978-AE6B-939DCBE69817}">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -10627,13 +10686,13 @@
         <v>27</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -10644,19 +10703,19 @@
         <v>15</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>31</v>
+        <v>428</v>
       </c>
       <c r="L2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="N2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="P2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="R2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -10667,19 +10726,19 @@
         <v>17</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>32</v>
+        <v>429</v>
       </c>
       <c r="L3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="N3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="P3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="R3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -10687,16 +10746,16 @@
         <v>18</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>33</v>
+        <v>430</v>
       </c>
       <c r="L4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="N4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="R4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -10704,30 +10763,33 @@
         <v>19</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>34</v>
+        <v>431</v>
       </c>
       <c r="L5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="N5" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="R5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="C6" t="s">
         <v>20</v>
       </c>
+      <c r="I6" t="s">
+        <v>432</v>
+      </c>
       <c r="L6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="N6" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="R6" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -10735,24 +10797,43 @@
         <v>21</v>
       </c>
       <c r="N7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="R7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="R8" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="R9" t="s">
-        <v>85</v>
-      </c>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="I11" s="103"/>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="I12" s="104"/>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="I13" s="104"/>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="I14" s="104"/>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="I15" s="104"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="I16" s="104"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10774,13 +10855,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -10841,34 +10922,34 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -10948,11 +11029,11 @@
     </row>
     <row r="2" spans="1:29" ht="15" customHeight="1">
       <c r="B2" s="90" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C2" s="95"/>
       <c r="D2" s="91" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E2" s="94"/>
       <c r="F2" s="94"/>
@@ -10960,13 +11041,13 @@
       <c r="H2" s="94"/>
       <c r="I2" s="95"/>
       <c r="J2" s="92" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K2" s="94"/>
       <c r="L2" s="94"/>
       <c r="M2" s="95"/>
       <c r="N2" s="89" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O2" s="94"/>
       <c r="P2" s="94"/>
@@ -10986,67 +11067,67 @@
     </row>
     <row r="3" spans="1:29" ht="39" customHeight="1">
       <c r="A3" s="93" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B3" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="G3" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="H3" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="I3" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="J3" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="38" t="s">
-        <v>325</v>
-      </c>
-      <c r="G3" s="42" t="s">
+      <c r="K3" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="L3" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="I3" s="44" t="s">
+      <c r="M3" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="J3" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="K3" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="L3" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="M3" s="46" t="s">
-        <v>77</v>
-      </c>
       <c r="N3" s="36" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="O3" s="37" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="P3" s="37" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Q3" s="38" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="R3" s="38" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="S3" s="39" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="T3" s="37" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="U3" s="37" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="V3" s="35"/>
       <c r="W3" s="35"/>
@@ -11059,10 +11140,10 @@
     </row>
     <row r="4" spans="1:29" ht="15.75" customHeight="1">
       <c r="A4" s="93" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C4" s="50">
         <v>31936</v>
@@ -11078,7 +11159,7 @@
         <v>45078</v>
       </c>
       <c r="G4" s="52" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H4" s="51">
         <v>16000000</v>
@@ -11087,7 +11168,7 @@
         <v>30</v>
       </c>
       <c r="J4" s="48" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="K4" s="48"/>
       <c r="L4" s="48"/>
@@ -11104,19 +11185,19 @@
         <v>Khu vực Miền Bắc</v>
       </c>
       <c r="Q4" s="48" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="R4" s="48" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="S4" s="48">
         <v>10011566</v>
       </c>
       <c r="T4" s="48" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="U4" s="49" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="V4" s="48"/>
       <c r="W4" s="48"/>
@@ -11129,10 +11210,10 @@
     </row>
     <row r="5" spans="1:29" ht="15.75" customHeight="1">
       <c r="A5" s="93" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C5" s="54">
         <v>34885</v>
@@ -11148,7 +11229,7 @@
         <v>45079</v>
       </c>
       <c r="G5" s="52" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H5" s="51">
         <v>15547000</v>
@@ -11157,7 +11238,7 @@
         <v>30</v>
       </c>
       <c r="J5" s="48" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
@@ -11174,19 +11255,19 @@
         <v>Khu vực Miền Bắc</v>
       </c>
       <c r="Q5" s="48" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="R5" s="48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="S5" s="53">
         <v>10713812</v>
       </c>
       <c r="T5" s="48" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="U5" s="49" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="V5" s="48"/>
       <c r="W5" s="48"/>
@@ -11199,10 +11280,10 @@
     </row>
     <row r="6" spans="1:29" ht="15.75" customHeight="1">
       <c r="A6" s="93" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C6" s="54">
         <v>26947</v>
@@ -11218,7 +11299,7 @@
         <v>45079</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H6" s="51">
         <v>15759000</v>
@@ -11227,7 +11308,7 @@
         <v>30</v>
       </c>
       <c r="J6" s="48" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="K6" s="48"/>
       <c r="L6" s="48"/>
@@ -11244,19 +11325,19 @@
         <v>Khu vực Miền Bắc</v>
       </c>
       <c r="Q6" s="48" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="R6" s="48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="S6" s="48">
         <v>11354182</v>
       </c>
       <c r="T6" s="48" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="U6" s="49" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="V6" s="48"/>
       <c r="W6" s="48"/>
@@ -11269,10 +11350,10 @@
     </row>
     <row r="7" spans="1:29" ht="15.75" customHeight="1">
       <c r="A7" s="93" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C7" s="54">
         <v>32941</v>
@@ -11288,7 +11369,7 @@
         <v>45079</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H7" s="51">
         <v>15140000</v>
@@ -11297,7 +11378,7 @@
         <v>30</v>
       </c>
       <c r="J7" s="48" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
@@ -11314,19 +11395,19 @@
         <v>Khu vực Miền Bắc</v>
       </c>
       <c r="Q7" s="48" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="R7" s="48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="S7" s="48">
         <v>10853804</v>
       </c>
       <c r="T7" s="48" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="U7" s="49" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="V7" s="48"/>
       <c r="W7" s="48"/>
@@ -11339,10 +11420,10 @@
     </row>
     <row r="8" spans="1:29" ht="15.75" customHeight="1">
       <c r="A8" s="93" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B8" s="56" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C8" s="57">
         <v>36051</v>
@@ -11358,7 +11439,7 @@
         <v>45082</v>
       </c>
       <c r="G8" s="52" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H8" s="55">
         <v>14160000</v>
@@ -11367,7 +11448,7 @@
         <v>30</v>
       </c>
       <c r="J8" s="56" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K8" s="48"/>
       <c r="L8" s="48"/>
@@ -11384,19 +11465,19 @@
         <v>Khu vực Miền Bắc</v>
       </c>
       <c r="Q8" s="48" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="R8" s="56" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="S8" s="56">
         <v>11155227</v>
       </c>
       <c r="T8" s="56" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="U8" s="49" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="V8" s="48"/>
       <c r="W8" s="48"/>
@@ -11409,13 +11490,13 @@
     </row>
     <row r="9" spans="1:29" ht="15.75" customHeight="1">
       <c r="A9" s="93" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C9" s="58" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D9" s="51">
         <v>5</v>
@@ -11428,7 +11509,7 @@
         <v>45082</v>
       </c>
       <c r="G9" s="52" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H9" s="59">
         <v>14500000</v>
@@ -11437,7 +11518,7 @@
         <v>30</v>
       </c>
       <c r="J9" s="48" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K9" s="48"/>
       <c r="L9" s="48"/>
@@ -11454,19 +11535,19 @@
         <v>Khu vực Miền Bắc</v>
       </c>
       <c r="Q9" s="48" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="R9" s="49" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="S9" s="49">
         <v>10887587</v>
       </c>
       <c r="T9" s="49" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="U9" s="49" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="V9" s="48"/>
       <c r="W9" s="48"/>
@@ -11479,10 +11560,10 @@
     </row>
     <row r="10" spans="1:29" ht="14.25" customHeight="1">
       <c r="A10" s="93" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C10" s="61">
         <v>35687</v>
@@ -11498,7 +11579,7 @@
         <v>45083</v>
       </c>
       <c r="G10" s="52" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H10" s="59">
         <v>19000000</v>
@@ -11507,7 +11588,7 @@
         <v>30</v>
       </c>
       <c r="J10" s="48" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="K10" s="48"/>
       <c r="L10" s="48"/>
@@ -11524,19 +11605,19 @@
         <v>Khu vực Miền Bắc</v>
       </c>
       <c r="Q10" s="48" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="R10" s="49" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="S10" s="60">
         <v>10859639</v>
       </c>
       <c r="T10" s="49" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="U10" s="49" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="V10" s="48"/>
       <c r="W10" s="48"/>
@@ -11549,10 +11630,10 @@
     </row>
     <row r="11" spans="1:29" ht="14.25" customHeight="1">
       <c r="A11" s="93" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C11" s="61">
         <v>29931</v>
@@ -11568,7 +11649,7 @@
         <v>45083</v>
       </c>
       <c r="G11" s="52" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H11" s="59">
         <v>15000000</v>
@@ -11577,7 +11658,7 @@
         <v>30</v>
       </c>
       <c r="J11" s="56" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K11" s="48"/>
       <c r="L11" s="48"/>
@@ -11594,19 +11675,19 @@
         <v>Khu vực Miền Bắc</v>
       </c>
       <c r="Q11" s="48" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="R11" s="56" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="S11" s="47">
         <v>10011041</v>
       </c>
       <c r="T11" s="47" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="U11" s="49" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="V11" s="48"/>
       <c r="W11" s="48"/>
@@ -11619,10 +11700,10 @@
     </row>
     <row r="12" spans="1:29" ht="14.25" customHeight="1">
       <c r="A12" s="93" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B12" s="47" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C12" s="61">
         <v>34336</v>
@@ -11638,7 +11719,7 @@
         <v>45083</v>
       </c>
       <c r="G12" s="52" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H12" s="59">
         <v>16000000</v>
@@ -11647,7 +11728,7 @@
         <v>30</v>
       </c>
       <c r="J12" s="48" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="K12" s="48"/>
       <c r="L12" s="48"/>
@@ -11664,19 +11745,19 @@
         <v>Khu vực Miền Bắc</v>
       </c>
       <c r="Q12" s="48" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="R12" s="47" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="S12" s="48">
         <v>10011566</v>
       </c>
       <c r="T12" s="47" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="U12" s="49" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="V12" s="48"/>
       <c r="W12" s="48"/>
@@ -11689,10 +11770,10 @@
     </row>
     <row r="13" spans="1:29" ht="14.25" customHeight="1">
       <c r="A13" s="93" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B13" s="56" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C13" s="64">
         <v>35172</v>
@@ -11708,7 +11789,7 @@
         <v>45084</v>
       </c>
       <c r="G13" s="52" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H13" s="55">
         <v>15000000</v>
@@ -11717,7 +11798,7 @@
         <v>30</v>
       </c>
       <c r="J13" s="56" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K13" s="48"/>
       <c r="L13" s="48"/>
@@ -11734,19 +11815,19 @@
         <v>Khu vực Miền Bắc</v>
       </c>
       <c r="Q13" s="48" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="R13" s="49" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="S13" s="62">
         <v>11417971</v>
       </c>
       <c r="T13" s="63" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="U13" s="49" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="V13" s="48"/>
       <c r="W13" s="48"/>
@@ -11759,10 +11840,10 @@
     </row>
     <row r="14" spans="1:29" ht="14.25" customHeight="1">
       <c r="A14" s="93" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C14" s="66">
         <v>31725</v>
@@ -11778,7 +11859,7 @@
         <v>45084</v>
       </c>
       <c r="G14" s="52" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H14" s="68">
         <v>16000000</v>
@@ -11787,7 +11868,7 @@
         <v>30</v>
       </c>
       <c r="J14" s="49" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="K14" s="48"/>
       <c r="L14" s="48"/>
@@ -11804,19 +11885,19 @@
         <v>Khu vực Miền Bắc</v>
       </c>
       <c r="Q14" s="48" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="R14" s="49" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="S14" s="49">
         <v>10389737</v>
       </c>
       <c r="T14" s="65" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="U14" s="49" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="V14" s="48"/>
       <c r="W14" s="48"/>
@@ -11829,10 +11910,10 @@
     </row>
     <row r="15" spans="1:29" ht="14.25" customHeight="1">
       <c r="A15" s="93" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C15" s="66">
         <v>30978</v>
@@ -11848,7 +11929,7 @@
         <v>45084</v>
       </c>
       <c r="G15" s="52" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H15" s="68">
         <v>28000000</v>
@@ -11857,7 +11938,7 @@
         <v>30</v>
       </c>
       <c r="J15" s="49" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="K15" s="48"/>
       <c r="L15" s="48"/>
@@ -11874,19 +11955,19 @@
         <v>Khu vực Miền Bắc</v>
       </c>
       <c r="Q15" s="48" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="R15" s="49" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="S15" s="49">
         <v>11206321</v>
       </c>
       <c r="T15" s="52" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="U15" s="49" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="V15" s="48"/>
       <c r="W15" s="48"/>
@@ -11899,10 +11980,10 @@
     </row>
     <row r="16" spans="1:29" ht="14.25" customHeight="1">
       <c r="A16" s="93" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C16" s="69">
         <v>26870</v>
@@ -11918,13 +11999,13 @@
         <v>45085</v>
       </c>
       <c r="G16" s="52" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H16" s="51">
         <v>10013000</v>
       </c>
       <c r="I16" s="55" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="J16" s="56"/>
       <c r="K16" s="48"/>
@@ -11942,19 +12023,19 @@
         <v>Khu vực Miền Bắc</v>
       </c>
       <c r="Q16" s="48" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="R16" s="48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="S16" s="48">
         <v>10598441</v>
       </c>
       <c r="T16" s="48" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="U16" s="49" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="V16" s="48"/>
       <c r="W16" s="48"/>
@@ -11967,10 +12048,10 @@
     </row>
     <row r="17" spans="1:29" ht="14.25" customHeight="1">
       <c r="A17" s="93" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C17" s="54">
         <v>32136</v>
@@ -11986,7 +12067,7 @@
         <v>45085</v>
       </c>
       <c r="G17" s="52" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H17" s="51">
         <v>17849000</v>
@@ -11995,7 +12076,7 @@
         <v>30</v>
       </c>
       <c r="J17" s="49" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K17" s="48"/>
       <c r="L17" s="48"/>
@@ -12012,19 +12093,19 @@
         <v>Khu vực Miền Bắc</v>
       </c>
       <c r="Q17" s="48" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="R17" s="48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="S17" s="56">
         <v>10853804</v>
       </c>
       <c r="T17" s="48" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="U17" s="49" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="V17" s="48"/>
       <c r="W17" s="48"/>
@@ -12037,10 +12118,10 @@
     </row>
     <row r="18" spans="1:29" ht="14.25" customHeight="1">
       <c r="A18" s="93" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C18" s="54">
         <v>31894</v>
@@ -12056,16 +12137,16 @@
         <v>45085</v>
       </c>
       <c r="G18" s="52" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H18" s="51">
         <v>30417000</v>
       </c>
       <c r="I18" s="55" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="J18" s="48" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="K18" s="48"/>
       <c r="L18" s="48"/>
@@ -12082,19 +12163,19 @@
         <v>Khu vực Miền Bắc</v>
       </c>
       <c r="Q18" s="48" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="R18" s="48" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="S18" s="65">
         <v>11035261</v>
       </c>
       <c r="T18" s="48" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="U18" s="49" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="V18" s="48"/>
       <c r="W18" s="48"/>
@@ -12107,10 +12188,10 @@
     </row>
     <row r="19" spans="1:29" ht="14.25" customHeight="1">
       <c r="A19" s="93" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B19" s="53" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C19" s="57">
         <v>28619</v>
@@ -12126,16 +12207,16 @@
         <v>45086</v>
       </c>
       <c r="G19" s="53" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H19" s="72">
         <v>40135000</v>
       </c>
       <c r="I19" s="72" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="J19" s="53" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K19" s="53"/>
       <c r="L19" s="53"/>
@@ -12152,19 +12233,19 @@
         <v>Khu vực Miền Bắc</v>
       </c>
       <c r="Q19" s="48" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="R19" s="48" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="S19" s="70">
         <v>10833728</v>
       </c>
       <c r="T19" s="71" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="U19" s="53" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="V19" s="48"/>
       <c r="W19" s="48"/>
@@ -12177,10 +12258,10 @@
     </row>
     <row r="20" spans="1:29" ht="14.25" customHeight="1">
       <c r="A20" s="93" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C20" s="54">
         <v>21801</v>
@@ -12196,16 +12277,16 @@
         <v>45089</v>
       </c>
       <c r="G20" s="52" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H20" s="51">
         <v>35000000</v>
       </c>
       <c r="I20" s="72" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="J20" s="56" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="K20" s="48"/>
       <c r="L20" s="48"/>
@@ -12222,19 +12303,19 @@
         <v>Khu vực Miền Bắc</v>
       </c>
       <c r="Q20" s="48" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="R20" s="48" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="S20" s="56">
         <v>10977575</v>
       </c>
       <c r="T20" s="48" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="U20" s="49" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="V20" s="48"/>
       <c r="W20" s="48"/>
@@ -12247,10 +12328,10 @@
     </row>
     <row r="21" spans="1:29" ht="14.25" customHeight="1">
       <c r="A21" s="93" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C21" s="54">
         <v>28445</v>
@@ -12266,13 +12347,13 @@
         <v>45090</v>
       </c>
       <c r="G21" s="52" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H21" s="51">
         <v>25820000</v>
       </c>
       <c r="I21" s="55" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="J21" s="48"/>
       <c r="K21" s="48"/>
@@ -12290,19 +12371,19 @@
         <v>Khu vực Miền Bắc</v>
       </c>
       <c r="Q21" s="48" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="R21" s="49" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="S21" s="60">
         <v>10859639</v>
       </c>
       <c r="T21" s="49" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="U21" s="49" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="V21" s="48"/>
       <c r="W21" s="48"/>
@@ -12315,10 +12396,10 @@
     </row>
     <row r="22" spans="1:29" ht="14.25" customHeight="1">
       <c r="A22" s="93" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C22" s="54">
         <v>28445</v>
@@ -12334,13 +12415,13 @@
         <v>45090</v>
       </c>
       <c r="G22" s="52" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H22" s="51">
         <v>28181000</v>
       </c>
       <c r="I22" s="55" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="J22" s="48"/>
       <c r="K22" s="48"/>
@@ -12358,19 +12439,19 @@
         <v>Khu vực Miền Bắc</v>
       </c>
       <c r="Q22" s="48" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="R22" s="49" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="S22" s="60">
         <v>10859639</v>
       </c>
       <c r="T22" s="49" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="U22" s="49" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="V22" s="48"/>
       <c r="W22" s="48"/>
@@ -12383,10 +12464,10 @@
     </row>
     <row r="23" spans="1:29" ht="14.25" customHeight="1">
       <c r="A23" s="93" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C23" s="54">
         <v>27580</v>
@@ -12402,7 +12483,7 @@
         <v>45090</v>
       </c>
       <c r="G23" s="52" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H23" s="51">
         <v>15136000</v>
@@ -12411,7 +12492,7 @@
         <v>30</v>
       </c>
       <c r="J23" s="48" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="K23" s="48"/>
       <c r="L23" s="48"/>
@@ -12428,19 +12509,19 @@
         <v>Khu vực Miền Bắc</v>
       </c>
       <c r="Q23" s="48" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="R23" s="49" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="S23" s="52">
         <v>11112557</v>
       </c>
       <c r="T23" s="48" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="U23" s="49" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="V23" s="48"/>
       <c r="W23" s="48"/>
@@ -12453,10 +12534,10 @@
     </row>
     <row r="24" spans="1:29" ht="14.25" customHeight="1">
       <c r="A24" s="93" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B24" s="53" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C24" s="73">
         <v>34920</v>
@@ -12472,19 +12553,19 @@
         <v>45090</v>
       </c>
       <c r="G24" s="53" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H24" s="72">
         <v>20000000</v>
       </c>
       <c r="I24" s="72" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="J24" s="56" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="K24" s="53" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="L24" s="53"/>
       <c r="M24" s="50"/>
@@ -12492,25 +12573,25 @@
         <v>9348</v>
       </c>
       <c r="O24" s="53" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="P24" s="53" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="Q24" s="48" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="R24" s="48" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="S24" s="56">
         <v>10507114</v>
       </c>
       <c r="T24" s="53" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="U24" s="53" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="V24" s="48"/>
       <c r="W24" s="48"/>
@@ -12523,10 +12604,10 @@
     </row>
     <row r="25" spans="1:29" ht="14.25" customHeight="1">
       <c r="A25" s="93" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B25" s="56" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C25" s="74">
         <v>29079</v>
@@ -12542,7 +12623,7 @@
         <v>45090</v>
       </c>
       <c r="G25" s="52" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H25" s="51">
         <v>17000000</v>
@@ -12551,7 +12632,7 @@
         <v>30</v>
       </c>
       <c r="J25" s="48" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K25" s="48"/>
       <c r="L25" s="48"/>
@@ -12568,19 +12649,19 @@
         <v>Khu vực Miền Bắc</v>
       </c>
       <c r="Q25" s="48" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="R25" s="56" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="S25" s="56">
         <v>10011058</v>
       </c>
       <c r="T25" s="56" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="U25" s="49" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="V25" s="48"/>
       <c r="W25" s="48"/>
@@ -12593,10 +12674,10 @@
     </row>
     <row r="26" spans="1:29" ht="14.25" customHeight="1">
       <c r="A26" s="93" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C26" s="54">
         <v>29607</v>
@@ -12612,7 +12693,7 @@
         <v>45090</v>
       </c>
       <c r="G26" s="52" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H26" s="51">
         <v>20000000</v>
@@ -12621,7 +12702,7 @@
         <v>30</v>
       </c>
       <c r="J26" s="48" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K26" s="48"/>
       <c r="L26" s="48"/>
@@ -12638,19 +12719,19 @@
         <v>Khu vực Miền Bắc</v>
       </c>
       <c r="Q26" s="48" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="R26" s="48" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="S26" s="48">
         <v>11061765</v>
       </c>
       <c r="T26" s="48" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="U26" s="49" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="V26" s="48"/>
       <c r="W26" s="48"/>
@@ -12663,10 +12744,10 @@
     </row>
     <row r="27" spans="1:29" ht="14.25" customHeight="1">
       <c r="A27" s="93" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B27" s="48" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C27" s="54">
         <v>21039</v>
@@ -12682,16 +12763,16 @@
         <v>45091</v>
       </c>
       <c r="G27" s="52" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H27" s="51">
         <v>15000000</v>
       </c>
       <c r="I27" s="55" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="J27" s="48" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K27" s="48"/>
       <c r="L27" s="48"/>
@@ -12708,19 +12789,19 @@
         <v>Khu vực Miền Bắc</v>
       </c>
       <c r="Q27" s="48" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="R27" s="48" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="S27" s="56">
         <v>11182882</v>
       </c>
       <c r="T27" s="48" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="U27" s="49" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="V27" s="48"/>
       <c r="W27" s="48"/>
@@ -12733,10 +12814,10 @@
     </row>
     <row r="28" spans="1:29" ht="14.25" customHeight="1">
       <c r="A28" s="93" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B28" s="48" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C28" s="50">
         <v>31415</v>
@@ -12752,16 +12833,16 @@
         <v>45091</v>
       </c>
       <c r="G28" s="52" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H28" s="51">
         <v>20000000</v>
       </c>
       <c r="I28" s="55" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="J28" s="48" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="K28" s="48"/>
       <c r="L28" s="48"/>
@@ -12778,19 +12859,19 @@
         <v>Khu vực Miền Bắc</v>
       </c>
       <c r="Q28" s="48" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="R28" s="48" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="S28" s="48">
         <v>10045861</v>
       </c>
       <c r="T28" s="48" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="U28" s="49" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="V28" s="48"/>
       <c r="W28" s="48"/>
@@ -12803,10 +12884,10 @@
     </row>
     <row r="29" spans="1:29" ht="14.25" customHeight="1">
       <c r="A29" s="93" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B29" s="48" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C29" s="50">
         <v>31784</v>
@@ -12822,16 +12903,16 @@
         <v>45091</v>
       </c>
       <c r="G29" s="52" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H29" s="51">
         <v>16000000</v>
       </c>
       <c r="I29" s="55" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="J29" s="48" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="K29" s="48"/>
       <c r="L29" s="48"/>
@@ -12848,19 +12929,19 @@
         <v>Khu vực Miền Bắc</v>
       </c>
       <c r="Q29" s="48" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="R29" s="48" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="S29" s="48">
         <v>10045861</v>
       </c>
       <c r="T29" s="48" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="U29" s="49" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="V29" s="48"/>
       <c r="W29" s="48"/>
@@ -12873,10 +12954,10 @@
     </row>
     <row r="30" spans="1:29" ht="14.25" customHeight="1">
       <c r="A30" s="93" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B30" s="56" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C30" s="75">
         <v>32052</v>
@@ -12892,7 +12973,7 @@
         <v>45091</v>
       </c>
       <c r="G30" s="52" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H30" s="55">
         <v>15363000</v>
@@ -12901,7 +12982,7 @@
         <v>30</v>
       </c>
       <c r="J30" s="56" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="K30" s="56"/>
       <c r="L30" s="56"/>
@@ -12918,19 +12999,19 @@
         <v>Khu vực Miền Bắc</v>
       </c>
       <c r="Q30" s="48" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="R30" s="70" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="S30" s="56">
         <v>10011566</v>
       </c>
       <c r="T30" s="56" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="U30" s="49" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="V30" s="48"/>
       <c r="W30" s="48"/>
@@ -12943,10 +13024,10 @@
     </row>
     <row r="31" spans="1:29" ht="14.25" customHeight="1">
       <c r="A31" s="93" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B31" s="53" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C31" s="77">
         <v>26602</v>
@@ -12962,19 +13043,19 @@
         <v>45091</v>
       </c>
       <c r="G31" s="53" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H31" s="72">
         <v>15000000</v>
       </c>
       <c r="I31" s="72" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="J31" s="53" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="K31" s="53" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="L31" s="53"/>
       <c r="M31" s="50"/>
@@ -12982,25 +13063,25 @@
         <v>9348</v>
       </c>
       <c r="O31" s="53" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="P31" s="53" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="Q31" s="48" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="R31" s="48" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="S31" s="76">
         <v>11212463</v>
       </c>
       <c r="T31" s="56" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="U31" s="53" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="V31" s="48"/>
       <c r="W31" s="48"/>
@@ -13013,10 +13094,10 @@
     </row>
     <row r="32" spans="1:29" ht="14.25" customHeight="1">
       <c r="A32" s="93" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B32" s="56" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C32" s="75">
         <v>29753</v>
@@ -13032,13 +13113,13 @@
         <v>45092</v>
       </c>
       <c r="G32" s="52" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H32" s="55">
         <v>21573000</v>
       </c>
       <c r="I32" s="55" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="J32" s="56"/>
       <c r="K32" s="56"/>
@@ -13056,19 +13137,19 @@
         <v>Khu vực Miền Bắc</v>
       </c>
       <c r="Q32" s="48" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="R32" s="70" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="S32" s="56">
         <v>11107756</v>
       </c>
       <c r="T32" s="56" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="U32" s="49" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="V32" s="48"/>
       <c r="W32" s="48"/>
@@ -13081,10 +13162,10 @@
     </row>
     <row r="33" spans="1:29" ht="14.25" customHeight="1">
       <c r="A33" s="93" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B33" s="48" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C33" s="50">
         <v>29738</v>
@@ -13100,7 +13181,7 @@
         <v>45093</v>
       </c>
       <c r="G33" s="52" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H33" s="51">
         <v>15571000</v>
@@ -13109,7 +13190,7 @@
         <v>30</v>
       </c>
       <c r="J33" s="48" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="K33" s="48"/>
       <c r="L33" s="48"/>
@@ -13126,19 +13207,19 @@
         <v>Khu vực Miền Bắc</v>
       </c>
       <c r="Q33" s="48" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="R33" s="56" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="S33" s="56">
         <v>10283929</v>
       </c>
       <c r="T33" s="56" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="U33" s="49" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="V33" s="48"/>
       <c r="W33" s="48"/>
@@ -13151,10 +13232,10 @@
     </row>
     <row r="34" spans="1:29" ht="14.25" customHeight="1">
       <c r="A34" s="93" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B34" s="48" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C34" s="54">
         <v>34034</v>
@@ -13170,7 +13251,7 @@
         <v>45093</v>
       </c>
       <c r="G34" s="52" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H34" s="51">
         <v>15486000</v>
@@ -13179,7 +13260,7 @@
         <v>30</v>
       </c>
       <c r="J34" s="48" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K34" s="48"/>
       <c r="L34" s="48"/>
@@ -13196,19 +13277,19 @@
         <v>Khu vực Miền Bắc</v>
       </c>
       <c r="Q34" s="48" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="R34" s="70" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="S34" s="78">
         <v>10496144</v>
       </c>
       <c r="T34" s="56" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="U34" s="49" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="V34" s="48"/>
       <c r="W34" s="48"/>
@@ -38503,24 +38584,24 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="28" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="27" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -38528,10 +38609,10 @@
         <v>9332</v>
       </c>
       <c r="B3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D3" s="33">
         <f>A3-A2</f>
@@ -38543,10 +38624,10 @@
         <v>9335</v>
       </c>
       <c r="B4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D4" s="33">
         <f t="shared" ref="D4:D28" si="0">A4-A3</f>
@@ -38555,13 +38636,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="27" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" t="s">
         <v>213</v>
-      </c>
-      <c r="C5" t="s">
-        <v>217</v>
       </c>
       <c r="D5" s="33">
         <f t="shared" si="0"/>
@@ -38570,13 +38651,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="27" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C6" t="s">
         <v>213</v>
-      </c>
-      <c r="C6" t="s">
-        <v>217</v>
       </c>
       <c r="D6" s="33">
         <f t="shared" si="0"/>
@@ -38585,13 +38666,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="27" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" t="s">
         <v>213</v>
-      </c>
-      <c r="C7" t="s">
-        <v>217</v>
       </c>
       <c r="D7" s="33">
         <f t="shared" si="0"/>
@@ -38600,13 +38681,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="27" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B8" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C8" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D8" s="33">
         <f t="shared" si="0"/>
@@ -38615,13 +38696,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="27" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B9" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C9" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D9" s="33">
         <f t="shared" si="0"/>
@@ -38630,13 +38711,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="27" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C10" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D10" s="33">
         <f t="shared" si="0"/>
@@ -38645,13 +38726,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="27" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B11" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C11" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D11" s="33">
         <f t="shared" si="0"/>
@@ -38660,13 +38741,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="27" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B12" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C12" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D12" s="33">
         <f t="shared" si="0"/>
@@ -38675,13 +38756,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="27" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B13" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C13" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D13" s="33">
         <f t="shared" si="0"/>
@@ -38690,13 +38771,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="27" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B14" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C14" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D14" s="33">
         <f t="shared" si="0"/>
@@ -38705,13 +38786,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="27" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B15" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C15" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D15" s="33">
         <f t="shared" si="0"/>
@@ -38720,13 +38801,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="27" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B16" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C16" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D16" s="33">
         <f t="shared" si="0"/>
@@ -38735,13 +38816,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="27" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B17" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C17" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D17" s="33">
         <f t="shared" si="0"/>
@@ -38750,13 +38831,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="27" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B18" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C18" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D18" s="33">
         <f t="shared" si="0"/>
@@ -38765,13 +38846,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="27" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B19" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C19" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D19" s="33">
         <f t="shared" si="0"/>
@@ -38780,13 +38861,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="27" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B20" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C20" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D20" s="33">
         <f t="shared" si="0"/>
@@ -38795,13 +38876,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="27" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B21" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C21" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D21" s="33">
         <f t="shared" si="0"/>
@@ -38810,13 +38891,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="27" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B22" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C22" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D22" s="33">
         <f t="shared" si="0"/>
@@ -38825,13 +38906,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="27" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B23" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C23" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D23" s="33">
         <f t="shared" si="0"/>
@@ -38840,13 +38921,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="27" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B24" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C24" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D24" s="33">
         <f t="shared" si="0"/>
@@ -38855,13 +38936,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="27" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B25" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C25" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D25" s="33">
         <f t="shared" si="0"/>
@@ -38870,13 +38951,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="27" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B26" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C26" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D26" s="33">
         <f t="shared" si="0"/>
@@ -38885,13 +38966,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="27" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B27" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C27" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D27" s="33">
         <f t="shared" si="0"/>
@@ -38900,13 +38981,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="27" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B28" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C28" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D28" s="33">
         <f t="shared" si="0"/>
@@ -38915,1052 +38996,1052 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="27" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B29" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C29" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="27" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B30" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C30" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="27" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B31" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C31" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="27" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B32" t="s">
+        <v>209</v>
+      </c>
+      <c r="C32" t="s">
         <v>213</v>
-      </c>
-      <c r="C32" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="27" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B33" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C33" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="27" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B34" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C34" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="27" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B35" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C35" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="27" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B36" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C36" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="27" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B37" t="s">
+        <v>209</v>
+      </c>
+      <c r="C37" t="s">
         <v>213</v>
-      </c>
-      <c r="C37" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="27" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B38" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C38" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="27" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B39" t="s">
+        <v>209</v>
+      </c>
+      <c r="C39" t="s">
         <v>213</v>
-      </c>
-      <c r="C39" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="27" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B40" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C40" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="27" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B41" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C41" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="27" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B42" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C42" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="27" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B43" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C43" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="27" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B44" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C44" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="27" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B45" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C45" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="27" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B46" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C46" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="27" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B47" t="s">
+        <v>209</v>
+      </c>
+      <c r="C47" t="s">
         <v>213</v>
-      </c>
-      <c r="C47" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="27" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B48" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C48" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="27" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B49" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C49" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="27" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B50" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C50" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="27" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B51" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C51" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="27" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B52" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C52" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="27" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B53" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C53" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="27" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B54" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C54" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="27" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B55" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C55" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="27" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B56" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C56" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="27" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B57" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C57" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="27" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B58" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C58" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="27" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B59" t="s">
+        <v>210</v>
+      </c>
+      <c r="C59" t="s">
         <v>214</v>
-      </c>
-      <c r="C59" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="27" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B60" t="s">
+        <v>210</v>
+      </c>
+      <c r="C60" t="s">
         <v>214</v>
-      </c>
-      <c r="C60" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="27" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B61" t="s">
+        <v>210</v>
+      </c>
+      <c r="C61" t="s">
         <v>214</v>
-      </c>
-      <c r="C61" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="27" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B62" t="s">
+        <v>210</v>
+      </c>
+      <c r="C62" t="s">
         <v>214</v>
-      </c>
-      <c r="C62" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="27" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B63" t="s">
+        <v>210</v>
+      </c>
+      <c r="C63" t="s">
         <v>214</v>
-      </c>
-      <c r="C63" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="27" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B64" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C64" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="27" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B65" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C65" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="27" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B66" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C66" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="27" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B67" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C67" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="27" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B68" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C68" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="27" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B69" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C69" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="27" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B70" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C70" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="27" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B71" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C71" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="27" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B72" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C72" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="27" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B73" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C73" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="27" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B74" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C74" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="27" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B75" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C75" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="27" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B76" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C76" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="27" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B77" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C77" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="27" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B78" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C78" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="27" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B79" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C79" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="27" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B80" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C80" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="27" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B81" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C81" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="27" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B82" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C82" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="27" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B83" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C83" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="27" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B84" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C84" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="27" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B85" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C85" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="27" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B86" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C86" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="27" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B87" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C87" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="27" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B88" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C88" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="27" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B89" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C89" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="27" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B90" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C90" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="29" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B91" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C91" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="27" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B92" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C92" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="27" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B93" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C93" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="27" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B94" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C94" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="27" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B95" t="s">
+        <v>210</v>
+      </c>
+      <c r="C95" t="s">
         <v>214</v>
-      </c>
-      <c r="C95" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="27" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B96" t="s">
+        <v>210</v>
+      </c>
+      <c r="C96" t="s">
         <v>214</v>
-      </c>
-      <c r="C96" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="27" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B97" t="s">
+        <v>210</v>
+      </c>
+      <c r="C97" t="s">
         <v>214</v>
-      </c>
-      <c r="C97" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="27" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B98" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C98" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="27" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B99" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C99" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="27" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B100" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C100" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="27" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B101" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C101" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="27" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B102" t="s">
+        <v>210</v>
+      </c>
+      <c r="C102" t="s">
         <v>214</v>
-      </c>
-      <c r="C102" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="27" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B103" t="s">
+        <v>210</v>
+      </c>
+      <c r="C103" t="s">
         <v>214</v>
-      </c>
-      <c r="C103" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="27" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B104" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C104" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="27" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B105" t="s">
+        <v>210</v>
+      </c>
+      <c r="C105" t="s">
         <v>214</v>
-      </c>
-      <c r="C105" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="27" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B106" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C106" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="27" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B107" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C107" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="27" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B108" t="s">
+        <v>210</v>
+      </c>
+      <c r="C108" t="s">
         <v>214</v>
-      </c>
-      <c r="C108" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="27" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B109" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C109" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="27" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B110" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C110" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="27" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B111" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C111" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="27" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B112" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C112" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="27" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B113" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C113" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="27" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B114" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C114" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="27" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B115" t="s">
+        <v>210</v>
+      </c>
+      <c r="C115" t="s">
         <v>214</v>
-      </c>
-      <c r="C115" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="27" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B116" t="s">
+        <v>210</v>
+      </c>
+      <c r="C116" t="s">
         <v>214</v>
-      </c>
-      <c r="C116" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="27" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B117" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C117" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="27" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B118" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C118" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="27" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B119" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C119" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="27" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B120" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C120" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="27" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B121" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C121" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="27" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B122" t="s">
+        <v>209</v>
+      </c>
+      <c r="C122" t="s">
         <v>213</v>
-      </c>
-      <c r="C122" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="27" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C123" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="27" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C124" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="125" spans="1:3">
